--- a/xlsx/country_comparison/field_manual_dem_positive.xlsx
+++ b/xlsx/country_comparison/field_manual_dem_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
@@ -512,13 +509,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.187552845295846</v>
@@ -545,27 +539,24 @@
         <v>0.165777985161215</v>
       </c>
       <c r="J2" t="n">
-        <v>0.204856002325318</v>
+        <v>0.187087006247199</v>
       </c>
       <c r="K2" t="n">
-        <v>0.187087006247199</v>
+        <v>0.217780817965931</v>
       </c>
       <c r="L2" t="n">
-        <v>0.217780817965931</v>
+        <v>0.211347637514973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.211347637514973</v>
+        <v>0.158832660677207</v>
       </c>
       <c r="N2" t="n">
-        <v>0.158832660677207</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.173092663490765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.130903794941474</v>
@@ -592,27 +583,24 @@
         <v>0.124966581302774</v>
       </c>
       <c r="J3" t="n">
-        <v>0.113451820581805</v>
+        <v>0.136511477240726</v>
       </c>
       <c r="K3" t="n">
-        <v>0.136511477240726</v>
+        <v>0.158927991906128</v>
       </c>
       <c r="L3" t="n">
-        <v>0.158927991906128</v>
+        <v>0.136364173447363</v>
       </c>
       <c r="M3" t="n">
-        <v>0.136364173447363</v>
+        <v>0.113019212513578</v>
       </c>
       <c r="N3" t="n">
-        <v>0.113019212513578</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.138752343522713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.116502627844642</v>
@@ -639,27 +627,24 @@
         <v>0.120348951928157</v>
       </c>
       <c r="J4" t="n">
-        <v>0.136493235798699</v>
+        <v>0.103316856890962</v>
       </c>
       <c r="K4" t="n">
-        <v>0.103316856890962</v>
+        <v>0.0685563227993422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0685563227993422</v>
+        <v>0.104142885898635</v>
       </c>
       <c r="M4" t="n">
-        <v>0.104142885898635</v>
+        <v>0.148690328924125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.148690328924125</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.0992381368154273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.098119127133103</v>
@@ -686,27 +671,24 @@
         <v>0.0849329728175501</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0865656890975108</v>
+        <v>0.101826007559871</v>
       </c>
       <c r="K5" t="n">
-        <v>0.101826007559871</v>
+        <v>0.0938835445535136</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0938835445535136</v>
+        <v>0.095763631160695</v>
       </c>
       <c r="M5" t="n">
-        <v>0.095763631160695</v>
+        <v>0.101628051410061</v>
       </c>
       <c r="N5" t="n">
-        <v>0.101628051410061</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.0910101657002617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.0713439078565564</v>
@@ -733,27 +715,24 @@
         <v>0.0788462821403313</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0698469038964032</v>
+        <v>0.0805831254004006</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0805831254004006</v>
+        <v>0.059009566363099</v>
       </c>
       <c r="L6" t="n">
-        <v>0.059009566363099</v>
+        <v>0.0666698053580677</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0666698053580677</v>
+        <v>0.0804113453010442</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0804113453010442</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.070357261220281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.0636446067471898</v>
@@ -780,27 +759,24 @@
         <v>0.0679307591532992</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0570977764404733</v>
+        <v>0.0623310326850041</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0623310326850041</v>
+        <v>0.0626608842806648</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0626608842806648</v>
+        <v>0.0609375292971445</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0609375292971445</v>
+        <v>0.0655970709912567</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0655970709912567</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.0644080802873294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.056716904840166</v>
@@ -827,27 +803,24 @@
         <v>0.060866857416974</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0790009926153864</v>
+        <v>0.0617825991333085</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0617825991333085</v>
+        <v>0.0527675753156081</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0527675753156081</v>
+        <v>0.0558079055566553</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0558079055566553</v>
+        <v>0.0593107615605331</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0593107615605331</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.0542543525858902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.0523198868477203</v>
@@ -874,27 +847,24 @@
         <v>0.0557720699719527</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0477515018663519</v>
+        <v>0.0513969185679851</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0513969185679851</v>
+        <v>0.0573488002869268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0573488002869268</v>
+        <v>0.0604843900351913</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0604843900351913</v>
+        <v>0.0453269205421238</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0453269205421238</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.0391470679182218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.0505784877157686</v>
@@ -921,27 +891,24 @@
         <v>0.050964186420772</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0644460442438972</v>
+        <v>0.0405422156544065</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0405422156544065</v>
+        <v>0.0374257900061304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0374257900061304</v>
+        <v>0.0381327670577445</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0381327670577445</v>
+        <v>0.0641769255216696</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0641769255216696</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.0509587726802282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.0428745196259142</v>
@@ -968,27 +935,24 @@
         <v>0.0550692435643119</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0556136510924246</v>
+        <v>0.0563756839585455</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0563756839585455</v>
+        <v>0.0253833607529802</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0253833607529802</v>
+        <v>0.0292202034930814</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0292202034930814</v>
+        <v>0.0594329969756187</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0594329969756187</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.046380892817311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0.0384325784986486</v>
@@ -1015,27 +979,24 @@
         <v>0.0386787083933399</v>
       </c>
       <c r="J12" t="n">
-        <v>0.033586555635941</v>
+        <v>0.034377595373952</v>
       </c>
       <c r="K12" t="n">
-        <v>0.034377595373952</v>
+        <v>0.0578394099953217</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0578394099953217</v>
+        <v>0.0509676324020316</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0509676324020316</v>
+        <v>0.0214375461012557</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0214375461012557</v>
-      </c>
-      <c r="O12" t="n">
         <v>0.0395546047977607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>0.0356622264155928</v>
@@ -1062,27 +1023,24 @@
         <v>0.0332778608591338</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0522777309410798</v>
+        <v>0.0331662040054984</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0331662040054984</v>
+        <v>0.0219593531789633</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0219593531789633</v>
+        <v>0.0340597584016369</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0340597584016369</v>
+        <v>0.043845021148958</v>
       </c>
       <c r="N13" t="n">
-        <v>0.043845021148958</v>
-      </c>
-      <c r="O13" t="n">
         <v>0.0375503145443974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
         <v>0.0355800343396342</v>
@@ -1109,27 +1067,24 @@
         <v>0.0296040394567569</v>
       </c>
       <c r="J14" t="n">
-        <v>0.031311726282989</v>
+        <v>0.03087775382811</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03087775382811</v>
+        <v>0.0437896435327882</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0437896435327882</v>
+        <v>0.0398688485731887</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0398688485731887</v>
+        <v>0.0289245966388561</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0289245966388561</v>
-      </c>
-      <c r="O14" t="n">
         <v>0.0277083998479035</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
         <v>0.0342537576791034</v>
@@ -1156,27 +1111,24 @@
         <v>0.0415869545085699</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0342341424073755</v>
+        <v>0.0444917994221355</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0444917994221355</v>
+        <v>0.0523186276833343</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0523186276833343</v>
+        <v>0.0279333346990553</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0279333346990553</v>
+        <v>0.0279071661072273</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0279071661072273</v>
-      </c>
-      <c r="O15" t="n">
         <v>0.0273752887548734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
         <v>0.0337267451643148</v>
@@ -1203,27 +1155,24 @@
         <v>0.0346709432357195</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0269678288802132</v>
+        <v>0.0337497621334026</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0337497621334026</v>
+        <v>0.00799641162104561</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00799641162104561</v>
+        <v>0.0162457776458232</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0162457776458232</v>
+        <v>0.0567131092758384</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0567131092758384</v>
-      </c>
-      <c r="O16" t="n">
         <v>0.0319330087452317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
         <v>0.0336704797711714</v>
@@ -1250,27 +1199,24 @@
         <v>0.0429983043321472</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0374561437983978</v>
+        <v>0.0346672153122852</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0346672153122852</v>
+        <v>0.0382803302511057</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0382803302511057</v>
+        <v>0.0354828702861078</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0354828702861078</v>
+        <v>0.0302471190880198</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0302471190880198</v>
-      </c>
-      <c r="O17" t="n">
         <v>0.0326300373125095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
         <v>0.0307977545020423</v>
@@ -1297,27 +1243,24 @@
         <v>0.0403923830847645</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0297903541616735</v>
+        <v>0.0386114017367125</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0386114017367125</v>
+        <v>0.0311613124114058</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0311613124114058</v>
+        <v>0.0250371683487277</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0250371683487277</v>
+        <v>0.033636697683734</v>
       </c>
       <c r="N18" t="n">
-        <v>0.033636697683734</v>
-      </c>
-      <c r="O18" t="n">
         <v>0.0357978189146032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
         <v>0.0304715914718378</v>
@@ -1344,27 +1287,24 @@
         <v>0.0371936746353552</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0397215991913491</v>
+        <v>0.0297071620471506</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0297071620471506</v>
+        <v>0.02447986683605</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02447986683605</v>
+        <v>0.0250047055868626</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0250047055868626</v>
+        <v>0.0365595877309151</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0365595877309151</v>
-      </c>
-      <c r="O19" t="n">
         <v>0.0348839540153482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
         <v>0.0281522332945392</v>
@@ -1391,27 +1331,24 @@
         <v>0.0286254327095201</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0315677848838942</v>
+        <v>0.0261160711860088</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0261160711860088</v>
+        <v>0.0248939703673435</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0248939703673435</v>
+        <v>0.0342550826178505</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0342550826178505</v>
+        <v>0.0266833744958226</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0266833744958226</v>
-      </c>
-      <c r="O20" t="n">
         <v>0.0255586980682555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
         <v>0.0226486065467759</v>
@@ -1438,27 +1375,24 @@
         <v>0.0255358853163787</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0193410222852283</v>
+        <v>0.0205277695290885</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0205277695290885</v>
+        <v>0.0288405690139186</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0288405690139186</v>
+        <v>0.0274445232812495</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0274445232812495</v>
+        <v>0.0168067157314561</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0168067157314561</v>
-      </c>
-      <c r="O21" t="n">
         <v>0.0160898784420434</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>0.0217827057741238</v>
@@ -1485,27 +1419,24 @@
         <v>0.0186825104940501</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0312412361759866</v>
+        <v>0.0208806603823765</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0208806603823765</v>
+        <v>0.0257846649010737</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0257846649010737</v>
+        <v>0.0229590628865904</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0229590628865904</v>
+        <v>0.01901986532909</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01901986532909</v>
-      </c>
-      <c r="O22" t="n">
         <v>0.0234015674864042</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>0.0210176424079168</v>
@@ -1532,27 +1463,24 @@
         <v>0.0236942283904465</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0265200947670025</v>
+        <v>0.0224457233634043</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0224457233634043</v>
+        <v>0.0136951676538087</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0136951676538087</v>
+        <v>0.017558128623029</v>
       </c>
       <c r="M23" t="n">
-        <v>0.017558128623029</v>
+        <v>0.0267612258057203</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0267612258057203</v>
-      </c>
-      <c r="O23" t="n">
         <v>0.0241020507489241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
         <v>0.0204093025768012</v>
@@ -1579,27 +1507,24 @@
         <v>0.0207298427358428</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0194852415879624</v>
+        <v>0.0186404112904734</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0186404112904734</v>
+        <v>0.0243897515023889</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0243897515023889</v>
+        <v>0.0202544236114789</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0202544236114789</v>
+        <v>0.0183590415237388</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0183590415237388</v>
-      </c>
-      <c r="O24" t="n">
         <v>0.0182067788061847</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
         <v>0.0119128883661543</v>
@@ -1626,27 +1551,24 @@
         <v>0.00855757543450593</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0125845715532406</v>
+        <v>0.00820376523610703</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00820376523610703</v>
+        <v>0.00774664283458784</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00774664283458784</v>
+        <v>0.0128064729767807</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0128064729767807</v>
+        <v>0.0136736380611697</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0136736380611697</v>
-      </c>
-      <c r="O25" t="n">
         <v>0.0136158764694486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
         <v>0.0104421356907805</v>
@@ -1673,27 +1595,24 @@
         <v>0.0130532170346627</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0131376206878515</v>
+        <v>0.0106590132342445</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0106590132342445</v>
+        <v>0.0105638065460687</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0105638065460687</v>
+        <v>0.0104500595635118</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0104500595635118</v>
+        <v>0.0103727990875613</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0103727990875613</v>
-      </c>
-      <c r="O26" t="n">
         <v>0.0110758658728064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
         <v>0.00713033521644372</v>
@@ -1720,27 +1639,24 @@
         <v>0.00899424729560566</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00574202000630961</v>
+        <v>0.00848024225309875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00848024225309875</v>
+        <v>0.00706604658882859</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00706604658882859</v>
+        <v>0.00561327438524264</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00561327438524264</v>
+        <v>0.0079636851363812</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0079636851363812</v>
-      </c>
-      <c r="O27" t="n">
         <v>0.0099447081465897</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
         <v>0.00522839227819404</v>
@@ -1767,21 +1683,18 @@
         <v>0.00508176841984284</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00847545408819845</v>
+        <v>0.00548121746944203</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00548121746944203</v>
+        <v>0.00694144840120569</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00694144840120569</v>
+        <v>0.00569194721210692</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00569194721210692</v>
+        <v>0.00406680590726426</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00406680590726426</v>
-      </c>
-      <c r="O28" t="n">
         <v>0.00211452308616307</v>
       </c>
     </row>
